--- a/biology/Biologie cellulaire et moléculaire/Nesprine/Nesprine.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Nesprine/Nesprine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les nesprines sont des protéines qui viennent se fixer à la membrane cytosolique (ou membrane cytoplasmique) de l'enveloppe nucléaire du noyau d'une cellule et qui se fixent aux filaments intermédiaires cytosoliques.
 Elle assure l’interaction des microtubules avec l’enveloppe nucléaire sur sa face cytosolique.
@@ -512,10 +524,12 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les nesprines, qui appartiennent aux complexes LINC (linker of nucleoskeleton and cytoskeleton) qui, comme leur nom l’indique, relient  le cytosquelette au nucléosquelette à l’intérieur du noyau[1].</t>
+Les nesprines, qui appartiennent aux complexes LINC (linker of nucleoskeleton and cytoskeleton) qui, comme leur nom l’indique, relient  le cytosquelette au nucléosquelette à l’intérieur du noyau.</t>
         </is>
       </c>
     </row>
@@ -543,7 +557,9 @@
           <t>Mécanisme d'action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elles permettent l'ancrage de l'enveloppe nucléaire au cytosquelette.
 </t>
